--- a/assets/form/KP OCEAN - Application form 2024-01.xlsx
+++ b/assets/form/KP OCEAN - Application form 2024-01.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27316"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60f4de3c7384dc6b/프로그램개발/HOMPAGE 사진 모음/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My Desktop\OneDrive\프로그램개발\2. HOMEPAGE 개발\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87CBF244-1171-479A-B9DE-E5923A8C89A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{56379811-60E2-456A-96AB-6418E8025FDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCCA7BD2-B090-401A-834C-10AC474C2201}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Company location" sheetId="2" r:id="rId1"/>
-    <sheet name="SAMPLE CV" sheetId="1" r:id="rId2"/>
-    <sheet name="MY CV" sheetId="3" r:id="rId3"/>
+    <sheet name="SAMPLE CV" sheetId="1" r:id="rId1"/>
+    <sheet name="MY CV" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'MY CV'!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'MY CV'!$A$1:$P$39</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,9 +30,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,10 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="107">
-  <si>
-    <t>Come to our office Monday to Friday 0700~1700</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="106">
   <si>
     <t>CHECKLIST for RECRUITED CREW</t>
   </si>
@@ -421,11 +417,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="[$-409]d&quot;-&quot;mmm&quot;-&quot;yy;@"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d&quot;-&quot;mmm&quot;-&quot;yy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -518,14 +514,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
@@ -1384,9 +1372,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1438,7 +1423,7 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1453,10 +1438,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1465,23 +1450,347 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1489,15 +1798,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1510,10 +1810,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
@@ -1525,10 +1825,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1543,327 +1843,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1873,11 +1864,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1898,55 +1886,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>113514</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>8559</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7AB7E86-CC80-4B29-8751-3EF239C8F785}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="438150"/>
-          <a:ext cx="6285714" cy="7723809"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2034,7 +1973,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2364,33 +2303,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5502DD-1B31-4F49-AC70-DC096EC6AF5F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="31.5">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R50"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11:P11"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2414,1217 +2334,1229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="60" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="83"/>
+    </row>
+    <row r="2" spans="1:18" ht="30" customHeight="1">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="105"/>
-    </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1">
-      <c r="A2" s="106" t="s">
+      <c r="B2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111" t="s">
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="112" t="s">
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="94"/>
+      <c r="R2" s="15"/>
+    </row>
+    <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="85"/>
+      <c r="B3" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="116"/>
-      <c r="R2" s="16"/>
-    </row>
-    <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="107"/>
-      <c r="B3" s="123" t="s">
+      <c r="C3" s="102"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="129" t="s">
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
+    </row>
+    <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="85"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="119"/>
-    </row>
-    <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="107"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="131" t="s">
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="97"/>
+    </row>
+    <row r="5" spans="1:18" ht="39.950000000000003" customHeight="1">
+      <c r="A5" s="85"/>
+      <c r="B5" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="119"/>
-    </row>
-    <row r="5" spans="1:18" ht="39.950000000000003" customHeight="1">
-      <c r="A5" s="107"/>
-      <c r="B5" s="133" t="s">
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="38" t="s">
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="149"/>
+      <c r="M5" s="149"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="97"/>
+    </row>
+    <row r="6" spans="1:18" ht="30" customHeight="1">
+      <c r="A6" s="85"/>
+      <c r="B6" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="119"/>
-    </row>
-    <row r="6" spans="1:18" ht="30" customHeight="1">
-      <c r="A6" s="107"/>
-      <c r="B6" s="135" t="s">
+      <c r="C6" s="114"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="38" t="s">
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="100"/>
+    </row>
+    <row r="7" spans="1:18" ht="30" customHeight="1">
+      <c r="A7" s="85"/>
+      <c r="B7" s="167" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="120"/>
-      <c r="O6" s="121"/>
-      <c r="P6" s="122"/>
-    </row>
-    <row r="7" spans="1:18" ht="30" customHeight="1">
-      <c r="A7" s="107"/>
-      <c r="B7" s="63" t="s">
+      <c r="C7" s="114"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="149"/>
+      <c r="L7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="55" t="s">
+      <c r="N7" s="160"/>
+      <c r="O7" s="160"/>
+      <c r="P7" s="161"/>
+    </row>
+    <row r="8" spans="1:18" ht="30" customHeight="1">
+      <c r="A8" s="85"/>
+      <c r="B8" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="57"/>
-    </row>
-    <row r="8" spans="1:18" ht="30" customHeight="1">
-      <c r="A8" s="107"/>
-      <c r="B8" s="136" t="s">
+      <c r="C8" s="117"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="58" t="s">
+      <c r="F8" s="163"/>
+      <c r="G8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="18">
+        <v>38</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="19">
-        <v>38</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="K8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="L8" s="19">
+        <v>4</v>
+      </c>
+      <c r="M8" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="20">
-        <v>4</v>
-      </c>
-      <c r="M8" s="60" t="s">
+      <c r="N8" s="165"/>
+      <c r="O8" s="165"/>
+      <c r="P8" s="166"/>
+    </row>
+    <row r="9" spans="1:18" ht="30" customHeight="1">
+      <c r="A9" s="85"/>
+      <c r="B9" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="62"/>
-    </row>
-    <row r="9" spans="1:18" ht="30" customHeight="1">
-      <c r="A9" s="107"/>
-      <c r="B9" s="95" t="s">
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="7" t="s">
+      <c r="G9" s="122"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="125"/>
+    </row>
+    <row r="10" spans="1:18" ht="30" customHeight="1">
+      <c r="A10" s="85"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="139" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="140"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="96" t="s">
+      <c r="F10" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="142"/>
-    </row>
-    <row r="10" spans="1:18" ht="30" customHeight="1">
-      <c r="A10" s="107"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="46" t="s">
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="21">
+      <c r="J10" s="20">
         <v>8581</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="21">
         <v>44344</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="21">
         <v>44480</v>
       </c>
-      <c r="M10" s="23" t="str">
+      <c r="M10" s="22" t="str">
         <f>DATEDIF(K10,L10,"M")&amp;"M - "&amp;DATEDIF(K10,L10, "MD")&amp;"D"</f>
         <v>4M - 13D</v>
       </c>
-      <c r="N10" s="24" t="s">
+      <c r="N10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="47" t="s">
+      <c r="P10" s="120"/>
+    </row>
+    <row r="11" spans="1:18" ht="30" customHeight="1">
+      <c r="A11" s="85"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="P10" s="48"/>
-    </row>
-    <row r="11" spans="1:18" ht="30" customHeight="1">
-      <c r="A11" s="107"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="21">
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="20">
         <v>8581</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="21">
         <v>43847</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="21">
         <v>44078</v>
       </c>
-      <c r="M11" s="23" t="str">
+      <c r="M11" s="22" t="str">
         <f t="shared" ref="M11:M17" si="0">DATEDIF(K11,L11,"M")&amp;"M - "&amp;DATEDIF(K11,L11, "MD")&amp;"D"</f>
         <v>7M - 18D</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="47" t="s">
+      <c r="P11" s="120"/>
+    </row>
+    <row r="12" spans="1:18" ht="30" customHeight="1">
+      <c r="A12" s="85"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="P11" s="48"/>
-    </row>
-    <row r="12" spans="1:18" ht="30" customHeight="1">
-      <c r="A12" s="107"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="21">
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="20">
         <v>8581</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="21">
         <v>43585</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="21">
         <v>43714</v>
       </c>
-      <c r="M12" s="23" t="str">
+      <c r="M12" s="22" t="str">
         <f t="shared" si="0"/>
         <v>4M - 7D</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="P12" s="48"/>
+      <c r="P12" s="120"/>
     </row>
     <row r="13" spans="1:18" ht="30" customHeight="1">
-      <c r="A13" s="107"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="25" t="s">
+      <c r="A13" s="85"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="23">
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="22">
         <v>8581</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="21">
         <v>43169</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="21">
         <v>43368</v>
       </c>
-      <c r="M13" s="23" t="str">
+      <c r="M13" s="22" t="str">
         <f t="shared" si="0"/>
         <v>6M - 15D</v>
       </c>
-      <c r="N13" s="24" t="s">
+      <c r="N13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="P13" s="48"/>
+      <c r="P13" s="120"/>
     </row>
     <row r="14" spans="1:18" ht="30" customHeight="1">
-      <c r="A14" s="107"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="46" t="s">
+      <c r="A14" s="85"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="23">
+      <c r="J14" s="22">
         <v>8581</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="21">
         <v>42853</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="21">
         <v>43050</v>
       </c>
-      <c r="M14" s="23" t="str">
+      <c r="M14" s="22" t="str">
         <f t="shared" si="0"/>
         <v>6M - 14D</v>
       </c>
-      <c r="N14" s="24" t="s">
+      <c r="N14" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="O14" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="P14" s="48"/>
+      <c r="P14" s="120"/>
     </row>
     <row r="15" spans="1:18" ht="30" customHeight="1">
-      <c r="A15" s="107"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" s="23">
+      <c r="A15" s="85"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="22">
         <v>8581</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="21">
         <v>42454</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="21">
         <v>42671</v>
       </c>
-      <c r="M15" s="23" t="str">
+      <c r="M15" s="22" t="str">
         <f t="shared" si="0"/>
         <v>7M - 3D</v>
       </c>
-      <c r="N15" s="24" t="s">
+      <c r="N15" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="P15" s="48"/>
+      <c r="P15" s="120"/>
     </row>
     <row r="16" spans="1:18" ht="30" customHeight="1">
-      <c r="A16" s="107"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="23">
+      <c r="A16" s="85"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="22">
         <v>23312</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="21">
         <v>42115</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L16" s="21">
         <v>42317</v>
       </c>
-      <c r="M16" s="23" t="str">
+      <c r="M16" s="22" t="str">
         <f t="shared" si="0"/>
         <v>6M - 19D</v>
       </c>
-      <c r="N16" s="24" t="s">
+      <c r="N16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="O16" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="P16" s="48"/>
+      <c r="P16" s="120"/>
     </row>
     <row r="17" spans="1:16" ht="30" customHeight="1">
-      <c r="A17" s="107"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="23">
+      <c r="A17" s="85"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="22">
         <v>23312</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="21">
         <v>41793</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="21">
         <v>41969</v>
       </c>
-      <c r="M17" s="23" t="str">
+      <c r="M17" s="22" t="str">
         <f t="shared" si="0"/>
         <v>5M - 23D</v>
       </c>
-      <c r="N17" s="24" t="s">
+      <c r="N17" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="O17" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="P17" s="48"/>
+      <c r="P17" s="120"/>
     </row>
     <row r="18" spans="1:16" ht="30" customHeight="1">
-      <c r="A18" s="107"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="48"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="119"/>
+      <c r="P18" s="120"/>
     </row>
     <row r="19" spans="1:16" ht="30" customHeight="1">
-      <c r="A19" s="107"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="48"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="119"/>
+      <c r="P19" s="120"/>
     </row>
     <row r="20" spans="1:16" ht="30" customHeight="1">
-      <c r="A20" s="108"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="48"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="119"/>
+      <c r="P20" s="120"/>
     </row>
     <row r="21" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="75"/>
+    </row>
+    <row r="22" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="83"/>
-    </row>
-    <row r="22" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="92" t="s">
+      <c r="B22" s="71"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="28">
+        <v>179</v>
+      </c>
+      <c r="E22" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="29">
-        <v>179</v>
-      </c>
-      <c r="E22" s="30" t="s">
+      <c r="F22" s="141" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="94" t="s">
+      <c r="G22" s="71"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="28">
+        <v>85</v>
+      </c>
+      <c r="J22" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="29">
-        <v>85</v>
-      </c>
-      <c r="J22" s="30" t="s">
+      <c r="K22" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="K22" s="31" t="s">
+      <c r="L22" s="31">
+        <v>270</v>
+      </c>
+      <c r="M22" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="L22" s="32">
-        <v>270</v>
-      </c>
-      <c r="M22" s="30" t="s">
+      <c r="N22" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="N22" s="33" t="s">
+      <c r="O22" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="O22" s="40" t="s">
+      <c r="P22" s="150"/>
+    </row>
+    <row r="23" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="147" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="P22" s="41"/>
-    </row>
-    <row r="23" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="101" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90" t="s">
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90" t="s">
+      <c r="H23" s="78"/>
+      <c r="I23" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90" t="s">
+      <c r="J23" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="J23" s="70" t="s">
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70" t="s">
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="169"/>
+    </row>
+    <row r="24" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="147"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="71"/>
-    </row>
-    <row r="24" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="101"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="8" t="s">
+      <c r="K24" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="L24" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L24" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="M24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N24" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="N24" s="8" t="s">
+      <c r="O24" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="O24" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="P24" s="91"/>
+      <c r="P24" s="139"/>
     </row>
     <row r="25" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A25" s="49" t="str">
+      <c r="A25" s="153" t="str">
         <f>E2</f>
         <v>C/O</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51" t="str">
+      <c r="B25" s="154"/>
+      <c r="C25" s="155" t="str">
         <f>E3</f>
         <v xml:space="preserve">CABITA, CHRISHER L. </v>
       </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="51" t="s">
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="155" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="154"/>
+      <c r="I25" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="8" t="s">
+      <c r="K25" s="33">
+        <v>43104</v>
+      </c>
+      <c r="L25" s="33">
+        <v>46755</v>
+      </c>
+      <c r="M25" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="K25" s="34">
+      <c r="N25" s="33">
         <v>43104</v>
       </c>
-      <c r="L25" s="34">
-        <v>46755</v>
-      </c>
-      <c r="M25" s="8" t="s">
+      <c r="O25" s="157">
+        <v>46754</v>
+      </c>
+      <c r="P25" s="158"/>
+    </row>
+    <row r="26" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="N25" s="34">
-        <v>43104</v>
-      </c>
-      <c r="O25" s="53">
-        <v>46754</v>
-      </c>
-      <c r="P25" s="54"/>
-    </row>
-    <row r="26" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="81" t="s">
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="75"/>
+    </row>
+    <row r="27" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="83"/>
-    </row>
-    <row r="27" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="84" t="s">
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="9" t="s">
+      <c r="F27" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="86" t="s">
+      <c r="G27" s="67"/>
+      <c r="H27" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="67"/>
+      <c r="J27" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="68"/>
+      <c r="L27" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86" t="s">
+      <c r="M27" s="137"/>
+      <c r="N27" s="137"/>
+      <c r="O27" s="137"/>
+      <c r="P27" s="138"/>
+    </row>
+    <row r="28" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28" s="67"/>
+      <c r="J28" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="K28" s="68"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="69"/>
+    </row>
+    <row r="29" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="86"/>
-      <c r="J27" s="87" t="s">
-        <v>61</v>
-      </c>
-      <c r="K27" s="87"/>
-      <c r="L27" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="M27" s="88"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="88"/>
-      <c r="P27" s="89"/>
-    </row>
-    <row r="28" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="I28" s="86"/>
-      <c r="J28" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="K28" s="87"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="149"/>
-    </row>
-    <row r="29" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="84" t="s">
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="69"/>
+    </row>
+    <row r="30" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="149"/>
-    </row>
-    <row r="30" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="81" t="s">
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="75"/>
+    </row>
+    <row r="31" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="83"/>
-    </row>
-    <row r="31" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="92" t="s">
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="86" t="s">
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86" t="s">
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="151" t="s">
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="76"/>
+      <c r="P31" s="77"/>
+    </row>
+    <row r="32" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
-      <c r="N31" s="151"/>
-      <c r="O31" s="151"/>
-      <c r="P31" s="152"/>
-    </row>
-    <row r="32" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="143" t="s">
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="61">
+        <v>44352</v>
+      </c>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="144"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="145">
-        <v>44352</v>
-      </c>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="146" t="s">
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="I32" s="146"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="147" t="s">
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="64"/>
+    </row>
+    <row r="33" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="L32" s="147"/>
-      <c r="M32" s="147"/>
-      <c r="N32" s="147"/>
-      <c r="O32" s="147"/>
-      <c r="P32" s="148"/>
-    </row>
-    <row r="33" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="153" t="s">
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42">
+        <v>44574</v>
+      </c>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="45"/>
+    </row>
+    <row r="34" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="154"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="155">
-        <v>44574</v>
-      </c>
-      <c r="F33" s="155"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="156" t="s">
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="48">
+        <v>44569</v>
+      </c>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="I33" s="156"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="157" t="s">
-        <v>82</v>
-      </c>
-      <c r="L33" s="157"/>
-      <c r="M33" s="157"/>
-      <c r="N33" s="157"/>
-      <c r="O33" s="157"/>
-      <c r="P33" s="158"/>
-    </row>
-    <row r="34" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="159" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="160"/>
-      <c r="C34" s="160"/>
-      <c r="D34" s="160"/>
-      <c r="E34" s="161">
-        <v>44569</v>
-      </c>
-      <c r="F34" s="161"/>
-      <c r="G34" s="161"/>
-      <c r="H34" s="162" t="s">
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="51"/>
+    </row>
+    <row r="35" spans="1:16" ht="35.1" customHeight="1">
+      <c r="A35" s="132" t="s">
         <v>85</v>
       </c>
-      <c r="I34" s="162"/>
-      <c r="J34" s="162"/>
-      <c r="K34" s="163" t="s">
-        <v>82</v>
-      </c>
-      <c r="L34" s="163"/>
-      <c r="M34" s="163"/>
-      <c r="N34" s="163"/>
-      <c r="O34" s="163"/>
-      <c r="P34" s="164"/>
-    </row>
-    <row r="35" spans="1:16" ht="35.1" customHeight="1">
-      <c r="A35" s="75" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="133"/>
+    </row>
+    <row r="36" spans="1:16" ht="21" customHeight="1">
+      <c r="A36" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="76"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="76"/>
-      <c r="P35" s="77"/>
-    </row>
-    <row r="36" spans="1:16" ht="21" customHeight="1">
-      <c r="A36" s="42" t="s">
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="67" t="s">
+      <c r="F36" s="130"/>
+      <c r="G36" s="130"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="130"/>
+      <c r="J36" s="130"/>
+      <c r="K36" s="130"/>
+      <c r="L36" s="130"/>
+      <c r="M36" s="130"/>
+      <c r="N36" s="130"/>
+      <c r="O36" s="130"/>
+      <c r="P36" s="131"/>
+    </row>
+    <row r="37" spans="1:16" ht="21" customHeight="1">
+      <c r="A37" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="68"/>
-      <c r="O36" s="68"/>
-      <c r="P36" s="69"/>
-    </row>
-    <row r="37" spans="1:16" ht="21" customHeight="1">
-      <c r="A37" s="165" t="s">
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="166"/>
-      <c r="C37" s="166"/>
-      <c r="D37" s="167"/>
-      <c r="E37" s="168" t="s">
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="57"/>
+    </row>
+    <row r="38" spans="1:16" ht="63" customHeight="1">
+      <c r="A38" s="151" t="s">
         <v>90</v>
       </c>
-      <c r="F37" s="169"/>
-      <c r="G37" s="169"/>
-      <c r="H37" s="169"/>
-      <c r="I37" s="169"/>
-      <c r="J37" s="169"/>
-      <c r="K37" s="169"/>
-      <c r="L37" s="169"/>
-      <c r="M37" s="169"/>
-      <c r="N37" s="169"/>
-      <c r="O37" s="169"/>
-      <c r="P37" s="170"/>
-    </row>
-    <row r="38" spans="1:16" ht="63" customHeight="1">
-      <c r="A38" s="44" t="s">
+      <c r="B38" s="152"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="78" t="s">
+      <c r="F38" s="135"/>
+      <c r="G38" s="135"/>
+      <c r="H38" s="135"/>
+      <c r="I38" s="135"/>
+      <c r="J38" s="135"/>
+      <c r="K38" s="135"/>
+      <c r="L38" s="135"/>
+      <c r="M38" s="135"/>
+      <c r="N38" s="135"/>
+      <c r="O38" s="135"/>
+      <c r="P38" s="136"/>
+    </row>
+    <row r="39" spans="1:16" ht="48.75" customHeight="1">
+      <c r="A39" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="79"/>
-      <c r="L38" s="79"/>
-      <c r="M38" s="79"/>
-      <c r="N38" s="79"/>
-      <c r="O38" s="79"/>
-      <c r="P38" s="80"/>
-    </row>
-    <row r="39" spans="1:16" ht="48.75" customHeight="1">
-      <c r="A39" s="42" t="s">
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="67" t="s">
+      <c r="F39" s="130"/>
+      <c r="G39" s="130"/>
+      <c r="H39" s="130"/>
+      <c r="I39" s="130"/>
+      <c r="J39" s="130"/>
+      <c r="K39" s="130"/>
+      <c r="L39" s="130"/>
+      <c r="M39" s="130"/>
+      <c r="N39" s="130"/>
+      <c r="O39" s="130"/>
+      <c r="P39" s="131"/>
+    </row>
+    <row r="40" spans="1:16" ht="48.75" customHeight="1">
+      <c r="A40" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
-      <c r="M39" s="68"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="68"/>
-      <c r="P39" s="69"/>
-    </row>
-    <row r="40" spans="1:16" ht="48.75" customHeight="1">
-      <c r="A40" s="42" t="s">
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="67" t="s">
+      <c r="F40" s="130"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="130"/>
+      <c r="I40" s="130"/>
+      <c r="J40" s="130"/>
+      <c r="K40" s="130"/>
+      <c r="L40" s="130"/>
+      <c r="M40" s="130"/>
+      <c r="N40" s="130"/>
+      <c r="O40" s="130"/>
+      <c r="P40" s="131"/>
+    </row>
+    <row r="41" spans="1:16" ht="84.75" customHeight="1">
+      <c r="A41" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="68"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="69"/>
-    </row>
-    <row r="41" spans="1:16" ht="84.75" customHeight="1">
-      <c r="A41" s="42" t="s">
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="12" t="s">
+      <c r="F41" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="F41" s="76" t="s">
+      <c r="G41" s="39"/>
+      <c r="H41" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="G41" s="76"/>
-      <c r="H41" s="15" t="s">
+      <c r="I41" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="I41" s="13" t="s">
+      <c r="J41" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="J41" s="76" t="s">
+      <c r="K41" s="39"/>
+      <c r="L41" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="K41" s="76"/>
-      <c r="L41" s="13" t="s">
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="13"/>
+    </row>
+    <row r="42" spans="1:16" ht="84.75" customHeight="1">
+      <c r="A42" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="14"/>
-    </row>
-    <row r="42" spans="1:16" ht="84.75" customHeight="1">
-      <c r="A42" s="42" t="s">
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="126" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="72" t="s">
-        <v>105</v>
-      </c>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="73"/>
-      <c r="K42" s="73"/>
-      <c r="L42" s="73"/>
-      <c r="M42" s="73"/>
-      <c r="N42" s="73"/>
-      <c r="O42" s="73"/>
-      <c r="P42" s="74"/>
+      <c r="F42" s="127"/>
+      <c r="G42" s="127"/>
+      <c r="H42" s="127"/>
+      <c r="I42" s="127"/>
+      <c r="J42" s="127"/>
+      <c r="K42" s="127"/>
+      <c r="L42" s="127"/>
+      <c r="M42" s="127"/>
+      <c r="N42" s="127"/>
+      <c r="O42" s="127"/>
+      <c r="P42" s="128"/>
     </row>
     <row r="44" spans="1:16" ht="31.5">
       <c r="A44" s="10"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="35"/>
+      <c r="A45" s="34"/>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="35"/>
+      <c r="A46" s="34"/>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="35"/>
+      <c r="A47" s="34"/>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="35"/>
+      <c r="A48" s="34"/>
     </row>
     <row r="50" spans="5:5">
-      <c r="E50" s="16"/>
+      <c r="E50" s="15"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="108">
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:P33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:P34"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:P37"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:P32"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A30:P30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:P31"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="E40:P40"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E42:P42"/>
+    <mergeCell ref="E36:P36"/>
+    <mergeCell ref="A35:P35"/>
+    <mergeCell ref="E38:P38"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A26:P26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B9:D20"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:F24"/>
+    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:P39"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="B2:D2"/>
@@ -3649,56 +3581,44 @@
     <mergeCell ref="O19:P19"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="O10:P10"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E42:P42"/>
-    <mergeCell ref="E36:P36"/>
-    <mergeCell ref="A35:P35"/>
-    <mergeCell ref="E38:P38"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A26:P26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="B9:D20"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:F24"/>
-    <mergeCell ref="G23:H24"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:P39"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="E40:P40"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:P32"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A30:P30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:P31"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:P33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:P34"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:P37"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="M8" r:id="rId1" xr:uid="{702E028D-C65E-4B2A-86C2-9CB3B12DB682}"/>
     <hyperlink ref="F7" r:id="rId2" xr:uid="{A55E6984-04E5-4D75-A103-772D05A48CBE}"/>
@@ -3709,12 +3629,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC76FF26-02EB-46F7-84CE-68F8F33489C7}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3738,887 +3661,965 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="60" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="83"/>
+    </row>
+    <row r="2" spans="1:18" ht="30" customHeight="1">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="105"/>
-    </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1">
-      <c r="A2" s="106" t="s">
+      <c r="B2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="109" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
       <c r="J2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="112"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="116"/>
-      <c r="R2" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="K2" s="90"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="94"/>
+      <c r="R2" s="15"/>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="107"/>
-      <c r="B3" s="123" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="119"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="102"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
     </row>
     <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="107"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="131" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="97"/>
+    </row>
+    <row r="5" spans="1:18" ht="39.950000000000003" customHeight="1">
+      <c r="A5" s="85"/>
+      <c r="B5" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="119"/>
-    </row>
-    <row r="5" spans="1:18" ht="39.950000000000003" customHeight="1">
-      <c r="A5" s="107"/>
-      <c r="B5" s="133" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="119"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="149"/>
+      <c r="M5" s="149"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="97"/>
     </row>
     <row r="6" spans="1:18" ht="30" customHeight="1">
-      <c r="A6" s="107"/>
-      <c r="B6" s="135" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="120"/>
-      <c r="O6" s="121"/>
-      <c r="P6" s="122"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="114"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="100"/>
     </row>
     <row r="7" spans="1:18" ht="30" customHeight="1">
-      <c r="A7" s="107"/>
-      <c r="B7" s="63" t="s">
+      <c r="A7" s="85"/>
+      <c r="B7" s="167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="114"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="55"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="57"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="149"/>
+      <c r="L7" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="159"/>
+      <c r="N7" s="160"/>
+      <c r="O7" s="160"/>
+      <c r="P7" s="161"/>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1">
-      <c r="A8" s="107"/>
-      <c r="B8" s="136" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="37" t="s">
+      <c r="A8" s="85"/>
+      <c r="B8" s="116" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="117"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="20"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="N8" s="171"/>
-      <c r="O8" s="172"/>
-      <c r="P8" s="173"/>
+        <v>23</v>
+      </c>
+      <c r="L8" s="19"/>
+      <c r="M8" s="175" t="s">
+        <v>105</v>
+      </c>
+      <c r="N8" s="172"/>
+      <c r="O8" s="173"/>
+      <c r="P8" s="174"/>
     </row>
     <row r="9" spans="1:18" ht="30" customHeight="1">
-      <c r="A9" s="107"/>
-      <c r="B9" s="95" t="s">
+      <c r="A9" s="85"/>
+      <c r="B9" s="142" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="139" t="s">
+      <c r="G9" s="122"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="140"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="N9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="O9" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="96" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" s="142"/>
+      <c r="P9" s="125"/>
     </row>
     <row r="10" spans="1:18" ht="30" customHeight="1">
-      <c r="A10" s="107"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="48"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="120"/>
     </row>
     <row r="11" spans="1:18" ht="30" customHeight="1">
-      <c r="A11" s="107"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="48"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="120"/>
     </row>
     <row r="12" spans="1:18" ht="30" customHeight="1">
-      <c r="A12" s="107"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="48"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="119"/>
+      <c r="P12" s="120"/>
     </row>
     <row r="13" spans="1:18" ht="30" customHeight="1">
-      <c r="A13" s="107"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="48"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="119"/>
+      <c r="P13" s="120"/>
     </row>
     <row r="14" spans="1:18" ht="30" customHeight="1">
-      <c r="A14" s="107"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="48"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="120"/>
     </row>
     <row r="15" spans="1:18" ht="30" customHeight="1">
-      <c r="A15" s="107"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="48"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="119"/>
+      <c r="P15" s="120"/>
     </row>
     <row r="16" spans="1:18" ht="30" customHeight="1">
-      <c r="A16" s="107"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="48"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="119"/>
+      <c r="P16" s="120"/>
     </row>
     <row r="17" spans="1:16" ht="30" customHeight="1">
-      <c r="A17" s="108"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="48"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="119"/>
+      <c r="P17" s="120"/>
     </row>
     <row r="18" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="75"/>
+    </row>
+    <row r="19" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="83"/>
-    </row>
-    <row r="19" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="92" t="s">
+      <c r="B19" s="71"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30" t="s">
+      <c r="F19" s="141" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="94" t="s">
+      <c r="G19" s="71"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="30" t="s">
+      <c r="K19" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="K19" s="31" t="s">
+      <c r="L19" s="31"/>
+      <c r="M19" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="L19" s="32"/>
-      <c r="M19" s="30" t="s">
+      <c r="N19" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="N19" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="O19" s="94"/>
-      <c r="P19" s="41"/>
+      <c r="O19" s="141"/>
+      <c r="P19" s="150"/>
     </row>
     <row r="20" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="101" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90" t="s">
+      <c r="A20" s="147" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90" t="s">
+      <c r="H20" s="78"/>
+      <c r="I20" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90" t="s">
+      <c r="J20" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="J20" s="70" t="s">
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70" t="s">
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="169"/>
+    </row>
+    <row r="21" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="147"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="71"/>
-    </row>
-    <row r="21" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="101"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="8" t="s">
+      <c r="K21" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="L21" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L21" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="M21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N21" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="N21" s="8" t="s">
+      <c r="O21" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="O21" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="P21" s="91"/>
+      <c r="P21" s="139"/>
     </row>
     <row r="22" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A22" s="49">
+      <c r="A22" s="153">
         <f>E2</f>
         <v>0</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51">
+      <c r="B22" s="154"/>
+      <c r="C22" s="155">
         <f>E3</f>
         <v>0</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="50"/>
-      <c r="I22" s="34"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="155" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="154"/>
+      <c r="I22" s="33"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="54"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="157"/>
+      <c r="P22" s="158"/>
     </row>
     <row r="23" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="75"/>
+    </row>
+    <row r="24" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="83"/>
-    </row>
-    <row r="24" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="84" t="s">
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="9" t="s">
+      <c r="F24" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="86" t="s">
+      <c r="G24" s="67"/>
+      <c r="H24" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="67"/>
+      <c r="J24" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" s="68"/>
+      <c r="L24" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86" t="s">
+      <c r="M24" s="137"/>
+      <c r="N24" s="137"/>
+      <c r="O24" s="137"/>
+      <c r="P24" s="138"/>
+    </row>
+    <row r="25" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="69"/>
+    </row>
+    <row r="26" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="86"/>
-      <c r="J24" s="87" t="s">
-        <v>61</v>
-      </c>
-      <c r="K24" s="87"/>
-      <c r="L24" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="89"/>
-    </row>
-    <row r="25" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="149"/>
-    </row>
-    <row r="26" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="84" t="s">
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="69"/>
+    </row>
+    <row r="27" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="149"/>
-    </row>
-    <row r="27" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="81" t="s">
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="75"/>
+    </row>
+    <row r="28" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="83"/>
-    </row>
-    <row r="28" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="92" t="s">
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="86" t="s">
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86" t="s">
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="151" t="s">
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="77"/>
+    </row>
+    <row r="29" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
-      <c r="N28" s="151"/>
-      <c r="O28" s="151"/>
-      <c r="P28" s="152"/>
-    </row>
-    <row r="29" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="143" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="147"/>
-      <c r="L29" s="147"/>
-      <c r="M29" s="147"/>
-      <c r="N29" s="147"/>
-      <c r="O29" s="147"/>
-      <c r="P29" s="148"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="64"/>
     </row>
     <row r="30" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="153" t="s">
+      <c r="A30" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="45"/>
+    </row>
+    <row r="31" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="154"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="157"/>
-      <c r="L30" s="157"/>
-      <c r="M30" s="157"/>
-      <c r="N30" s="157"/>
-      <c r="O30" s="157"/>
-      <c r="P30" s="158"/>
-    </row>
-    <row r="31" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="159" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="160"/>
-      <c r="C31" s="160"/>
-      <c r="D31" s="160"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="162"/>
-      <c r="I31" s="162"/>
-      <c r="J31" s="162"/>
-      <c r="K31" s="163"/>
-      <c r="L31" s="163"/>
-      <c r="M31" s="163"/>
-      <c r="N31" s="163"/>
-      <c r="O31" s="163"/>
-      <c r="P31" s="164"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="51"/>
     </row>
     <row r="32" spans="1:16" ht="35.1" customHeight="1">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="132" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="133"/>
+    </row>
+    <row r="33" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A33" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="77"/>
-    </row>
-    <row r="33" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A33" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="69"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="130"/>
+      <c r="K33" s="130"/>
+      <c r="L33" s="130"/>
+      <c r="M33" s="130"/>
+      <c r="N33" s="130"/>
+      <c r="O33" s="130"/>
+      <c r="P33" s="131"/>
     </row>
     <row r="34" spans="1:16" ht="30.75" customHeight="1">
-      <c r="A34" s="165" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="166"/>
-      <c r="C34" s="166"/>
-      <c r="D34" s="167"/>
-      <c r="E34" s="168"/>
-      <c r="F34" s="169"/>
-      <c r="G34" s="169"/>
-      <c r="H34" s="169"/>
-      <c r="I34" s="169"/>
-      <c r="J34" s="169"/>
-      <c r="K34" s="169"/>
-      <c r="L34" s="169"/>
-      <c r="M34" s="169"/>
-      <c r="N34" s="169"/>
-      <c r="O34" s="169"/>
-      <c r="P34" s="170"/>
+      <c r="A34" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="57"/>
     </row>
     <row r="35" spans="1:16" ht="63" customHeight="1">
-      <c r="A35" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="79"/>
-      <c r="O35" s="79"/>
-      <c r="P35" s="80"/>
+      <c r="A35" s="151" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="152"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="135"/>
+      <c r="H35" s="135"/>
+      <c r="I35" s="135"/>
+      <c r="J35" s="135"/>
+      <c r="K35" s="135"/>
+      <c r="L35" s="135"/>
+      <c r="M35" s="135"/>
+      <c r="N35" s="135"/>
+      <c r="O35" s="135"/>
+      <c r="P35" s="136"/>
     </row>
     <row r="36" spans="1:16" ht="48.75" customHeight="1">
-      <c r="A36" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="68"/>
-      <c r="O36" s="68"/>
-      <c r="P36" s="69"/>
+      <c r="A36" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="129"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="130"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="130"/>
+      <c r="J36" s="130"/>
+      <c r="K36" s="130"/>
+      <c r="L36" s="130"/>
+      <c r="M36" s="130"/>
+      <c r="N36" s="130"/>
+      <c r="O36" s="130"/>
+      <c r="P36" s="131"/>
     </row>
     <row r="37" spans="1:16" ht="48.75" customHeight="1">
-      <c r="A37" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
-      <c r="M37" s="68"/>
-      <c r="N37" s="68"/>
-      <c r="O37" s="68"/>
-      <c r="P37" s="69"/>
+      <c r="A37" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="130"/>
+      <c r="G37" s="130"/>
+      <c r="H37" s="130"/>
+      <c r="I37" s="130"/>
+      <c r="J37" s="130"/>
+      <c r="K37" s="130"/>
+      <c r="L37" s="130"/>
+      <c r="M37" s="130"/>
+      <c r="N37" s="130"/>
+      <c r="O37" s="130"/>
+      <c r="P37" s="131"/>
     </row>
     <row r="38" spans="1:16" ht="53.25" customHeight="1">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="I38" s="13"/>
-      <c r="J38" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="K38" s="76"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="14"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I38" s="12"/>
+      <c r="J38" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="K38" s="39"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="13"/>
     </row>
     <row r="39" spans="1:16" ht="105" customHeight="1">
-      <c r="A39" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="73"/>
-      <c r="L39" s="73"/>
-      <c r="M39" s="73"/>
-      <c r="N39" s="73"/>
-      <c r="O39" s="73"/>
-      <c r="P39" s="74"/>
+      <c r="A39" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="127"/>
+      <c r="G39" s="127"/>
+      <c r="H39" s="127"/>
+      <c r="I39" s="127"/>
+      <c r="J39" s="127"/>
+      <c r="K39" s="127"/>
+      <c r="L39" s="127"/>
+      <c r="M39" s="127"/>
+      <c r="N39" s="127"/>
+      <c r="O39" s="127"/>
+      <c r="P39" s="128"/>
     </row>
     <row r="41" spans="1:16" ht="31.5">
       <c r="A41" s="10"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="35"/>
+      <c r="A42" s="34"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="35"/>
+      <c r="A43" s="34"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="35"/>
+      <c r="A44" s="34"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="35"/>
+      <c r="A45" s="34"/>
     </row>
     <row r="47" spans="1:16">
-      <c r="E47" s="16"/>
+      <c r="E47" s="15"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="102">
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:P39"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:P36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:P37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="A32:P32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:P33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:P34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:P35"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:P30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:P31"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:P29"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="A23:P23"/>
+    <mergeCell ref="A18:P18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:F21"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="O14:P14"/>
     <mergeCell ref="E5:M5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:M6"/>
@@ -4643,84 +4644,6 @@
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="F11:H11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="A23:P23"/>
-    <mergeCell ref="A18:P18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:F21"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="K31:P31"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:P29"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:P39"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:P36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:P37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="A32:P32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:P33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:P34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:P35"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:P30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
